--- a/管理/素材用エクセル/FightDBDatas.xlsx
+++ b/管理/素材用エクセル/FightDBDatas.xlsx
@@ -1,48 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3178E886-92FA-4014-8DFD-113F1D5DB6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52647D6D-3B9B-45ED-91E0-DB259A2C4298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="3330" windowWidth="24270" windowHeight="14490" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
-    <sheet name="Buff" sheetId="2" r:id="rId2"/>
-    <sheet name="Special" sheetId="7" r:id="rId3"/>
-    <sheet name="Enemy" sheetId="3" r:id="rId4"/>
-    <sheet name="ActivePattern" sheetId="4" r:id="rId5"/>
-    <sheet name="Addvent" sheetId="5" r:id="rId6"/>
-    <sheet name="Party" sheetId="6" r:id="rId7"/>
+    <sheet name="Cards1" sheetId="8" r:id="rId2"/>
+    <sheet name="Buff" sheetId="2" r:id="rId3"/>
+    <sheet name="Special" sheetId="7" r:id="rId4"/>
+    <sheet name="Enemy" sheetId="3" r:id="rId5"/>
+    <sheet name="ActivePattern" sheetId="4" r:id="rId6"/>
+    <sheet name="Addvent" sheetId="5" r:id="rId7"/>
+    <sheet name="Party" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="117">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -984,7 +974,35 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1411,7 +1429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1424,8 +1442,8 @@
   </sheetPr>
   <dimension ref="A1:AF168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2392,33 +2410,33 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A49:A138 B75:B106 A44:B48 B44:B64 A22:B40 A15:B15 A4:B12">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:K158 M75:M84 K39:K40 K44:K64 M44:M64 M22:M40 K15 M15">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29 D38 J165:T168 E32:F35 G29:H35 J75:W164 E75:I168 E36:H40 E44:W64 E22:H28 I22:W40 E1:G12 H2:I5 E11:H12 E15:W15 H6:H10 I6:I12 J1:J12 R1:Y12 K2:L12 P2 M1:N12">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2427,6 +2445,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB5BA89-B92D-4EC6-8B2B-A00E47277769}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>AC3 + (AD3 * 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A4:B12">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G12 H2:I12 J1:J12 K2:L12 M1:N12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B26CA5-AAF5-43FF-AE04-5F751BB7DB4D}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -2591,7 +3155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48360B55-3576-419C-8F7B-1BB1D9E21160}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -2742,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A345AA-012C-4505-AEAF-8687A8CFD60E}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -3352,13 +3916,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:B10">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3366,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ECE7EA-0EDB-44CC-ACC9-546EBEEA4415}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -3955,18 +4519,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:K51">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F12 G2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3974,7 +4538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDE338F-588A-4BDF-9DD9-2750A0A25F5E}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -4189,7 +4753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0222339A-D325-466F-8EEE-926B71A449B7}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -4656,17 +5220,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3:F3 E5:F6 C4:D6 B3:B6 B7:F22">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
